--- a/分析用CVSデータ/マスク有・無のデータ（平均値・標準偏差・分散）.xlsx
+++ b/分析用CVSデータ/マスク有・無のデータ（平均値・標準偏差・分散）.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mayuk\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mayuk\source\repos\MusicPlayingDandelion\分析用CVSデータ\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6BF100F8-B30A-406C-8DA6-F62FA695A466}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4472B763-C328-4418-9C07-2A502AAC80B9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="1104" yWindow="1476" windowWidth="21936" windowHeight="11484" xr2:uid="{7544E812-6E45-4014-9D9C-51DF4D9E05D4}"/>
   </bookViews>
@@ -441,7 +441,7 @@
   <dimension ref="A1:I12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="M9" sqref="M9"/>
+      <selection activeCell="L8" sqref="L8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.45"/>
@@ -676,7 +676,7 @@
         <v>37.510629999999999</v>
       </c>
       <c r="F10">
-        <v>859</v>
+        <v>857</v>
       </c>
       <c r="G10">
         <v>35.838970000000003</v>
